--- a/instances/I1_R1.xlsx
+++ b/instances/I1_R1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402AE6B-5698-4E6D-97A2-3AD1326B92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A016793-BD07-4FBF-90DE-A02E3E96DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>m</t>
   </si>
@@ -112,23 +112,18 @@
     <t>name</t>
   </si>
   <si>
-    <t>I1_S8</t>
+    <t>service_time</t>
+  </si>
+  <si>
+    <t>I1_R1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,10 +133,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,9 +173,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,13 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -485,8 +482,8 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +539,8 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <f>24*60*2</f>
+        <v>2880</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,6 +557,14 @@
       </c>
       <c r="B11">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -569,26 +575,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D72AB1-15C4-4813-BDB5-1C4D16A67F0D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -596,117 +608,150 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.542964221780499</v>
+      </c>
+      <c r="D2">
+        <v>41.952035563657702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.08</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>8.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.545402596363999</v>
+      </c>
+      <c r="D3">
+        <v>41.955852927004997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.05</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.546348159235199</v>
+      </c>
+      <c r="D4">
+        <v>41.949938749940998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.82</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.5486791622107</v>
+      </c>
+      <c r="D5">
+        <v>41.954902471272703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.56</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.536930630126299</v>
+      </c>
+      <c r="D6">
+        <v>41.949050030440802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.18</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.549787514294101</v>
+      </c>
+      <c r="D7">
+        <v>41.946927357499099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.5099999999999998</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.557213473253199</v>
+      </c>
+      <c r="D8">
+        <v>41.947092227832002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.1</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>7.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.551560877627599</v>
+      </c>
+      <c r="D9">
+        <v>41.962011227573903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.83</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.541973632105901</v>
+      </c>
+      <c r="D10">
+        <v>41.950739874871701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.1</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12.550424816742099</v>
+      </c>
+      <c r="D11">
+        <v>41.948256612419001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.02</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>5.83</v>
+        <v>12.549621261481599</v>
+      </c>
+      <c r="D12">
+        <v>41.944155411183402</v>
       </c>
     </row>
   </sheetData>
@@ -716,110 +761,2086 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3849C84A-04E5-435F-ACFC-054754EFF967}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>11.2</v>
+        <v>570.04199999999992</v>
       </c>
       <c r="D3">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570.04199999999992</v>
+      </c>
+      <c r="E3">
+        <v>1.1400840000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>835.05800000000011</v>
+      </c>
+      <c r="D4">
+        <v>835.05800000000011</v>
+      </c>
+      <c r="E4">
+        <v>1.6701159999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>892.8649999999999</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>892.8649999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.78573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>609.97799999999995</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>609.97799999999995</v>
+      </c>
+      <c r="E6">
+        <v>1.219956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1305.066</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>1305.066</v>
+      </c>
+      <c r="E7">
+        <v>2.6101320000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2049.7959999999998</v>
+      </c>
+      <c r="D8">
+        <v>2049.7959999999998</v>
+      </c>
+      <c r="E8">
+        <v>4.0995920000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1695.5809999999999</v>
+      </c>
+      <c r="D9">
+        <v>1695.5809999999999</v>
+      </c>
+      <c r="E9">
+        <v>3.391162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>116.565</v>
+      </c>
+      <c r="D10">
+        <v>116.565</v>
+      </c>
+      <c r="E10">
+        <v>0.23313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1455.8230000000001</v>
+      </c>
+      <c r="D11">
+        <v>1455.8230000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.9116460000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1682.8720000000001</v>
+      </c>
+      <c r="D12">
+        <v>1682.8720000000001</v>
+      </c>
+      <c r="E12">
+        <v>3.3657439999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>570.04199999999992</v>
+      </c>
+      <c r="D13">
+        <v>570.04199999999992</v>
+      </c>
+      <c r="E13">
+        <v>1.1400840000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>909.87199999999996</v>
+      </c>
+      <c r="D15">
+        <v>909.87199999999996</v>
+      </c>
+      <c r="E15">
+        <v>1.819744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>322.82299999999998</v>
+      </c>
+      <c r="D16">
+        <v>322.82299999999998</v>
+      </c>
+      <c r="E16">
+        <v>0.64564599999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1180.02</v>
+      </c>
+      <c r="D17">
+        <v>1180.02</v>
+      </c>
+      <c r="E17">
+        <v>2.3600400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1379.88</v>
+      </c>
+      <c r="D18">
+        <v>1379.88</v>
+      </c>
+      <c r="E18">
+        <v>2.75976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2124.61</v>
+      </c>
+      <c r="D19">
+        <v>2124.61</v>
+      </c>
+      <c r="E19">
+        <v>4.2492200000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1125.539</v>
+      </c>
+      <c r="D20">
+        <v>1125.539</v>
+      </c>
+      <c r="E20">
+        <v>2.2510780000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>686.60699999999986</v>
+      </c>
+      <c r="D21">
+        <v>686.60699999999986</v>
+      </c>
+      <c r="E21">
+        <v>1.3732139999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>1530.6369999999999</v>
+      </c>
+      <c r="D22">
+        <v>1530.6369999999999</v>
+      </c>
+      <c r="E22">
+        <v>3.0612740000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1757.6859999999999</v>
+      </c>
+      <c r="D23">
+        <v>1757.6859999999999</v>
+      </c>
+      <c r="E23">
+        <v>3.5153720000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>550.59399999999994</v>
+      </c>
+      <c r="D24">
+        <v>550.59399999999994</v>
+      </c>
+      <c r="E24">
+        <v>1.1011880000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>905.01900000000001</v>
+      </c>
+      <c r="D25">
+        <v>905.01900000000001</v>
+      </c>
+      <c r="E25">
+        <v>1.810038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>629.28200000000004</v>
+      </c>
+      <c r="D27">
+        <v>629.28200000000004</v>
+      </c>
+      <c r="E27">
+        <v>1.258564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1045.3209999999999</v>
+      </c>
+      <c r="D28">
+        <v>1045.3209999999999</v>
+      </c>
+      <c r="E28">
+        <v>2.0906419999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>995.61799999999994</v>
+      </c>
+      <c r="D29">
+        <v>995.61799999999994</v>
+      </c>
+      <c r="E29">
+        <v>1.991236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1740.348</v>
+      </c>
+      <c r="D30">
+        <v>1740.348</v>
+      </c>
+      <c r="E30">
+        <v>3.480696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>1813.2360000000001</v>
+      </c>
+      <c r="D31">
+        <v>1813.2360000000001</v>
+      </c>
+      <c r="E31">
+        <v>3.6264720000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>434.029</v>
+      </c>
+      <c r="D32">
+        <v>434.029</v>
+      </c>
+      <c r="E32">
+        <v>0.868058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>1146.375</v>
+      </c>
+      <c r="D33">
+        <v>1146.375</v>
+      </c>
+      <c r="E33">
+        <v>2.2927499999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1373.424</v>
+      </c>
+      <c r="D34">
+        <v>1373.424</v>
+      </c>
+      <c r="E34">
+        <v>2.746848</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>919.41100000000006</v>
+      </c>
+      <c r="D35">
+        <v>919.41100000000006</v>
+      </c>
+      <c r="E35">
+        <v>1.838822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>782.86500000000001</v>
+      </c>
+      <c r="D36">
+        <v>782.86500000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.5657300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>629.28199999999993</v>
+      </c>
+      <c r="D37">
+        <v>629.28199999999993</v>
+      </c>
+      <c r="E37">
+        <v>1.258564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1529.3889999999999</v>
+      </c>
+      <c r="D39">
+        <v>1529.3889999999999</v>
+      </c>
+      <c r="E39">
+        <v>3.0587780000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1099.29</v>
+      </c>
+      <c r="D40">
+        <v>1099.29</v>
+      </c>
+      <c r="E40">
+        <v>2.1985800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>1844.02</v>
+      </c>
+      <c r="D41">
+        <v>1844.02</v>
+      </c>
+      <c r="E41">
+        <v>3.68804</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1183.954</v>
+      </c>
+      <c r="D42">
+        <v>1183.954</v>
+      </c>
+      <c r="E42">
+        <v>2.3679079999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1035.9760000000001</v>
+      </c>
+      <c r="D43">
+        <v>1035.9760000000001</v>
+      </c>
+      <c r="E43">
+        <v>2.071952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1250.047</v>
+      </c>
+      <c r="D44">
+        <v>1250.047</v>
+      </c>
+      <c r="E44">
+        <v>2.5000939999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1477.096</v>
+      </c>
+      <c r="D45">
+        <v>1477.096</v>
+      </c>
+      <c r="E45">
+        <v>2.954191999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>622.06000000000006</v>
+      </c>
+      <c r="D46">
+        <v>622.06000000000006</v>
+      </c>
+      <c r="E46">
+        <v>1.2441199999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1192.1020000000001</v>
+      </c>
+      <c r="D47">
+        <v>1192.1020000000001</v>
+      </c>
+      <c r="E47">
+        <v>2.384204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>1457.1179999999999</v>
+      </c>
+      <c r="D48">
+        <v>1457.1179999999999</v>
+      </c>
+      <c r="E48">
+        <v>2.9142359999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1514.925</v>
+      </c>
+      <c r="D49">
+        <v>1514.925</v>
+      </c>
+      <c r="E49">
+        <v>3.0298500000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>1927.126</v>
+      </c>
+      <c r="D51">
+        <v>1927.126</v>
+      </c>
+      <c r="E51">
+        <v>3.8542519999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>2671.8559999999989</v>
+      </c>
+      <c r="D52">
+        <v>2671.8559999999989</v>
+      </c>
+      <c r="E52">
+        <v>5.3437119999999982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>2317.6410000000001</v>
+      </c>
+      <c r="D53">
+        <v>2317.6410000000001</v>
+      </c>
+      <c r="E53">
+        <v>4.6352820000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>592.99300000000005</v>
+      </c>
+      <c r="D54">
+        <v>592.99300000000005</v>
+      </c>
+      <c r="E54">
+        <v>1.185986</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>2077.8829999999998</v>
+      </c>
+      <c r="D55">
+        <v>2077.8829999999998</v>
+      </c>
+      <c r="E55">
+        <v>4.1557660000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>2118.7939999999999</v>
+      </c>
+      <c r="D56">
+        <v>2118.7939999999999</v>
+      </c>
+      <c r="E56">
+        <v>4.2375880000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1137.318</v>
+      </c>
+      <c r="D57">
+        <v>1137.318</v>
+      </c>
+      <c r="E57">
+        <v>2.2746360000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1299.297</v>
+      </c>
+      <c r="D58">
+        <v>1299.297</v>
+      </c>
+      <c r="E58">
+        <v>2.5985939999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>586.72400000000005</v>
+      </c>
+      <c r="D59">
+        <v>586.72400000000005</v>
+      </c>
+      <c r="E59">
+        <v>1.173448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>1023.56</v>
+      </c>
+      <c r="D60">
+        <v>1023.56</v>
+      </c>
+      <c r="E60">
+        <v>2.0471200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1632.0450000000001</v>
+      </c>
+      <c r="D61">
+        <v>1632.0450000000001</v>
+      </c>
+      <c r="E61">
+        <v>3.264089999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>1001.706</v>
+      </c>
+      <c r="D63">
+        <v>1001.706</v>
+      </c>
+      <c r="E63">
+        <v>2.003412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>2207.5140000000001</v>
+      </c>
+      <c r="D64">
+        <v>2207.5140000000001</v>
+      </c>
+      <c r="E64">
+        <v>4.4150280000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>1020.753</v>
+      </c>
+      <c r="D65">
+        <v>1020.753</v>
+      </c>
+      <c r="E65">
+        <v>2.041506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>150.75700000000001</v>
+      </c>
+      <c r="D66">
+        <v>150.75700000000001</v>
+      </c>
+      <c r="E66">
+        <v>0.301514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>634.78200000000004</v>
+      </c>
+      <c r="D67">
+        <v>634.78200000000004</v>
+      </c>
+      <c r="E67">
+        <v>1.2695639999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2586.5479999999998</v>
+      </c>
+      <c r="D68">
+        <v>2586.5479999999998</v>
+      </c>
+      <c r="E68">
+        <v>5.1730960000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>2625.94</v>
+      </c>
+      <c r="D69">
+        <v>2625.94</v>
+      </c>
+      <c r="E69">
+        <v>5.2518799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>2115.6860000000001</v>
+      </c>
+      <c r="D70">
+        <v>2115.6860000000001</v>
+      </c>
+      <c r="E70">
+        <v>4.2313720000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>2350.203</v>
+      </c>
+      <c r="D71">
+        <v>2350.203</v>
+      </c>
+      <c r="E71">
+        <v>4.7004060000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3161.007000000001</v>
+      </c>
+      <c r="D72">
+        <v>3161.007000000001</v>
+      </c>
+      <c r="E72">
+        <v>6.3220140000000011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>1528.962</v>
+      </c>
+      <c r="D73">
+        <v>1528.962</v>
+      </c>
+      <c r="E73">
+        <v>3.0579239999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>3534.1570000000002</v>
+      </c>
+      <c r="D75">
+        <v>3534.1570000000002</v>
+      </c>
+      <c r="E75">
+        <v>7.0683139999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>2549.7150000000001</v>
+      </c>
+      <c r="D76">
+        <v>2549.7150000000001</v>
+      </c>
+      <c r="E76">
+        <v>5.0994299999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>1679.7190000000001</v>
+      </c>
+      <c r="D77">
+        <v>1679.7190000000001</v>
+      </c>
+      <c r="E77">
+        <v>3.3594379999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>1403.951</v>
+      </c>
+      <c r="D78">
+        <v>1403.951</v>
+      </c>
+      <c r="E78">
+        <v>2.8079019999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1651.7760000000001</v>
+      </c>
+      <c r="D79">
+        <v>1651.7760000000001</v>
+      </c>
+      <c r="E79">
+        <v>3.3035520000000012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>1081.7339999999999</v>
+      </c>
+      <c r="D80">
+        <v>1081.7339999999999</v>
+      </c>
+      <c r="E80">
+        <v>2.1634679999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>1845.4059999999999</v>
+      </c>
+      <c r="D81">
+        <v>1845.4059999999999</v>
+      </c>
+      <c r="E81">
+        <v>3.6908120000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>1216.124</v>
+      </c>
+      <c r="D82">
+        <v>1216.124</v>
+      </c>
+      <c r="E82">
+        <v>2.432248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>2261.7539999999999</v>
+      </c>
+      <c r="D83">
+        <v>2261.7539999999999</v>
+      </c>
+      <c r="E83">
+        <v>4.5235079999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>2315.4140000000002</v>
+      </c>
+      <c r="D84">
+        <v>2315.4140000000002</v>
+      </c>
+      <c r="E84">
+        <v>4.6308279999999993</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>3060.1439999999989</v>
+      </c>
+      <c r="D85">
+        <v>3060.1439999999989</v>
+      </c>
+      <c r="E85">
+        <v>6.1202879999999986</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>1768.3409999999999</v>
+      </c>
+      <c r="D87">
+        <v>1768.3409999999999</v>
+      </c>
+      <c r="E87">
+        <v>3.5366820000000012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>2466.1709999999998</v>
+      </c>
+      <c r="D88">
+        <v>2466.1709999999998</v>
+      </c>
+      <c r="E88">
+        <v>4.9323419999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>2693.22</v>
+      </c>
+      <c r="D89">
+        <v>2693.22</v>
+      </c>
+      <c r="E89">
+        <v>5.3864399999999986</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>116.565</v>
+      </c>
+      <c r="D90">
+        <v>116.565</v>
+      </c>
+      <c r="E90">
+        <v>0.23313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>686.60699999999997</v>
+      </c>
+      <c r="D91">
+        <v>686.60699999999997</v>
+      </c>
+      <c r="E91">
+        <v>1.3732139999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>951.62299999999993</v>
+      </c>
+      <c r="D92">
+        <v>951.62299999999993</v>
+      </c>
+      <c r="E92">
+        <v>1.903246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>1009.43</v>
+      </c>
+      <c r="D93">
+        <v>1009.43</v>
+      </c>
+      <c r="E93">
+        <v>2.0188600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>611.29199999999992</v>
+      </c>
+      <c r="D94">
+        <v>611.29199999999992</v>
+      </c>
+      <c r="E94">
+        <v>1.2225839999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>1421.6310000000001</v>
+      </c>
+      <c r="D95">
+        <v>1421.6310000000001</v>
+      </c>
+      <c r="E95">
+        <v>2.8432620000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>2166.3609999999999</v>
+      </c>
+      <c r="D96">
+        <v>2166.3609999999999</v>
+      </c>
+      <c r="E96">
+        <v>4.3327220000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>1812.146</v>
+      </c>
+      <c r="D97">
+        <v>1812.146</v>
+      </c>
+      <c r="E97">
+        <v>3.6242920000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>1572.3879999999999</v>
+      </c>
+      <c r="D99">
+        <v>1572.3879999999999</v>
+      </c>
+      <c r="E99">
+        <v>3.1447759999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1615.586</v>
+      </c>
+      <c r="D100">
+        <v>1615.586</v>
+      </c>
+      <c r="E100">
+        <v>3.2311719999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1109.1479999999999</v>
+      </c>
+      <c r="D101">
+        <v>1109.1479999999999</v>
+      </c>
+      <c r="E101">
+        <v>2.218296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>1148.54</v>
+      </c>
+      <c r="D102">
+        <v>1148.54</v>
+      </c>
+      <c r="E102">
+        <v>2.2970799999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>806.80499999999995</v>
+      </c>
+      <c r="D103">
+        <v>806.80499999999995</v>
+      </c>
+      <c r="E103">
+        <v>1.61361</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>872.80300000000011</v>
+      </c>
+      <c r="D104">
+        <v>872.80300000000011</v>
+      </c>
+      <c r="E104">
+        <v>1.745606</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>1719.126</v>
+      </c>
+      <c r="D105">
+        <v>1719.126</v>
+      </c>
+      <c r="E105">
+        <v>3.438251999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>821.00400000000002</v>
+      </c>
+      <c r="D106">
+        <v>821.00400000000002</v>
+      </c>
+      <c r="E106">
+        <v>1.6420079999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>1574.4490000000001</v>
+      </c>
+      <c r="D107">
+        <v>1574.4490000000001</v>
+      </c>
+      <c r="E107">
+        <v>3.148898</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>2056.7570000000001</v>
+      </c>
+      <c r="D108">
+        <v>2056.7570000000001</v>
+      </c>
+      <c r="E108">
+        <v>4.1135139999999986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>1225.713</v>
+      </c>
+      <c r="D109">
+        <v>1225.713</v>
+      </c>
+      <c r="E109">
+        <v>2.4514260000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>1207.5250000000001</v>
+      </c>
+      <c r="D111">
+        <v>1207.5250000000001</v>
+      </c>
+      <c r="E111">
+        <v>2.4150499999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1396.585</v>
+      </c>
+      <c r="D112">
+        <v>1396.585</v>
+      </c>
+      <c r="E112">
+        <v>2.793169999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1749.431</v>
+      </c>
+      <c r="D113">
+        <v>1749.431</v>
+      </c>
+      <c r="E113">
+        <v>3.4988619999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>10</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>845.99099999999999</v>
+      </c>
+      <c r="D114">
+        <v>845.99099999999999</v>
+      </c>
+      <c r="E114">
+        <v>1.6919820000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1473.694</v>
+      </c>
+      <c r="D115">
+        <v>1473.694</v>
+      </c>
+      <c r="E115">
+        <v>2.947388000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116">
+        <v>1800.527</v>
+      </c>
+      <c r="D116">
+        <v>1800.527</v>
+      </c>
+      <c r="E116">
+        <v>3.601054</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>500.83300000000003</v>
+      </c>
+      <c r="D117">
+        <v>500.83300000000003</v>
+      </c>
+      <c r="E117">
+        <v>1.0016659999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>935.73599999999988</v>
+      </c>
+      <c r="D118">
+        <v>935.73599999999988</v>
+      </c>
+      <c r="E118">
+        <v>1.871472</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>2657.6480000000001</v>
+      </c>
+      <c r="D119">
+        <v>2657.6480000000001</v>
+      </c>
+      <c r="E119">
+        <v>5.3152959999999991</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>1280.02</v>
+      </c>
+      <c r="D120">
+        <v>1280.02</v>
+      </c>
+      <c r="E120">
+        <v>2.560039999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>651.59</v>
+      </c>
+      <c r="D121">
+        <v>651.59</v>
+      </c>
+      <c r="E121">
+        <v>1.30318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9AE3EF-542D-4226-81BC-101FBBB818DF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,10 +2874,12 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>8*60</f>
+        <v>480</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <f>12*60</f>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,10 +2887,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <f>12*60</f>
+        <v>720</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <f>16*60</f>
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,10 +2900,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <f>16*60</f>
+        <v>960</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+      <c r="C5">
+        <f>24*60</f>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +2989,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +3013,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -991,25 +3031,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA4EAAB-F661-46EA-B43C-95D0BF318470}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1024,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>18.940000000000001</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>27.28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2.66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>9.24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>24.84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>8.02</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7.82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>4.29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1136,7 +3176,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>11.14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>5.79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>9.1199999999999992</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>7.91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>10.220000000000001</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>11.01</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1220,77 +3260,77 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>7.72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>7.31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18">
-        <v>19.989999999999998</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>8.86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>11.31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>0.47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1298,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>8.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,13 +3352,13 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>9.4600000000000009</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,13 +3366,13 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>5.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,13 +3380,13 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>7.41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,13 +3394,13 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>4.88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1368,13 +3408,13 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>24.83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +3422,13 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>8.7100000000000009</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,13 +3436,13 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>8.39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,13 +3450,13 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>9.8800000000000008</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1424,153 +3464,153 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
       <c r="D31">
-        <v>22.36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>6.46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>12.62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>6.51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>8.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36">
-        <v>12.07</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>4.32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>6.15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>4.34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>8.92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41">
         <v>5</v>
       </c>
       <c r="D41">
-        <v>6.95</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +3618,13 @@
         <v>3</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>2.9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +3632,13 @@
         <v>3</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43">
-        <v>11.29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +3646,13 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>25.96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +3660,13 @@
         <v>3</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>4.6100000000000003</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,228 +3674,228 @@
         <v>3</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="D46">
-        <v>6.98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>10.99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>18.71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49">
-        <v>9.08</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>18.420000000000002</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51">
-        <v>7.01</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>10.69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53">
-        <v>6.13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3.43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>5.75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56">
-        <v>10.9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>10.97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58">
-        <v>8.43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>25.73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60">
-        <v>14.06</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>5</v>
       </c>
       <c r="D61">
-        <v>8.65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1864,12 +3904,12 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>8.35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1878,12 +3918,12 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>8.1999999999999993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1892,12 +3932,12 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>13.91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1906,12 +3946,12 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>20.41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1920,12 +3960,12 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>5.68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1934,12 +3974,12 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>19.329999999999998</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1948,12 +3988,12 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>15.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1962,12 +4002,12 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>2.76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -1976,12 +4016,12 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>6.82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -1990,12 +4030,12 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>5.16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2004,12 +4044,12 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>10.72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -2018,12 +4058,12 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>2.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -2032,12 +4072,12 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>6.89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2046,12 +4086,12 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>6.56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2060,477 +4100,477 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>5.03</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>13.23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>9.91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>4</v>
       </c>
       <c r="D80">
-        <v>8.2899999999999991</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
       <c r="D81">
-        <v>5.24</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>19.149999999999999</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>17.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84">
-        <v>8.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>16.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>5</v>
       </c>
       <c r="D86">
-        <v>4.7300000000000004</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>18.27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>11.16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>3.91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>4</v>
       </c>
       <c r="D90">
-        <v>8.25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
         <v>5</v>
       </c>
       <c r="D91">
-        <v>11.64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>22.43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>9.93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>4.24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>12.01</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96">
-        <v>17.850000000000001</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97">
-        <v>9.77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>22.35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>3.75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100">
         <v>4</v>
       </c>
       <c r="D100">
-        <v>2.86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>5</v>
       </c>
       <c r="D101">
-        <v>1.76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>17.579999999999998</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>13.9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>2.44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>4</v>
       </c>
       <c r="D105">
-        <v>11.1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>5</v>
       </c>
       <c r="D106">
-        <v>14.41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1.96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>8.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>18.559999999999999</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2541,161 +4581,161 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111">
         <v>5</v>
       </c>
       <c r="D111">
-        <v>7.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>11.91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>16.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>1.1200000000000001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>12.41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>5</v>
       </c>
       <c r="D116">
-        <v>8.74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>8.86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>1.38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119">
-        <v>0.51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120">
         <v>4</v>
       </c>
       <c r="D120">
-        <v>6.48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C121">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>13.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2704,12 +4744,12 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>13.53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2718,12 +4758,12 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>9.3000000000000007</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2732,12 +4772,12 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>14.4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2746,12 +4786,12 @@
         <v>4</v>
       </c>
       <c r="D125">
-        <v>4.04</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2760,12 +4800,12 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <v>1.05</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2774,12 +4814,12 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>29.07</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2788,12 +4828,12 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>9.23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2802,12 +4842,12 @@
         <v>3</v>
       </c>
       <c r="D129">
-        <v>7.96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2816,12 +4856,12 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>7.12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2830,12 +4870,12 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>2.42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -2844,12 +4884,12 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>10.99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -2858,12 +4898,12 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>9.0399999999999991</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -2872,12 +4912,12 @@
         <v>3</v>
       </c>
       <c r="D134">
-        <v>0.27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -2886,12 +4926,12 @@
         <v>4</v>
       </c>
       <c r="D135">
-        <v>4.96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -2900,217 +4940,917 @@
         <v>5</v>
       </c>
       <c r="D136">
-        <v>10.26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>2.5499999999999998</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>7.64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
       <c r="D139">
-        <v>7.65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
         <v>4</v>
       </c>
       <c r="D140">
-        <v>6.93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>2.72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>15.93</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>12.58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
       <c r="D144">
-        <v>15.79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>4</v>
       </c>
       <c r="D145">
-        <v>18.95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>5</v>
       </c>
       <c r="D146">
-        <v>7.25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>7.23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148">
-        <v>9.02</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149">
-        <v>11.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150">
-        <v>9.11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>9</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>9</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>9</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>10</v>
       </c>
-      <c r="B151">
-        <v>3</v>
-      </c>
-      <c r="C151">
-        <v>5</v>
-      </c>
-      <c r="D151">
-        <v>17.739999999999998</v>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>10</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>10</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>10</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>10</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>10</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="D201">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/instances/I1_R1.xlsx
+++ b/instances/I1_R1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\wm-stochastic\instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A016793-BD07-4FBF-90DE-A02E3E96DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B8985C-797A-4D49-BF67-ED14E868518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D72AB1-15C4-4813-BDB5-1C4D16A67F0D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>12.545402596363999</v>
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>12.546348159235199</v>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>12.5486791622107</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>12.536930630126299</v>
@@ -675,7 +675,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>12.549787514294101</v>
@@ -689,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>12.557213473253199</v>
@@ -703,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>12.551560877627599</v>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>12.541973632105901</v>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>12.550424816742099</v>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>12.549621261481599</v>
